--- a/Team7_SPSUBookstore/Team7_SPSUBookstore/bin/Resources/books.xlsx
+++ b/Team7_SPSUBookstore/Team7_SPSUBookstore/bin/Resources/books.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1620" windowWidth="14850" windowHeight="6900" tabRatio="123"/>
+    <workbookView xWindow="2500" yWindow="1620" windowWidth="22320" windowHeight="12480" tabRatio="123"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="259">
   <si>
     <t>ISBN</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Recommended</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
   <si>
     <t>Linked</t>
@@ -816,7 +813,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -843,6 +840,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -868,59 +881,58 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -953,7 +965,9 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1288,86 +1302,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1"/>
-    <col min="8" max="8" width="10.875" style="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1"/>
+    <col min="8" max="8" width="11" style="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="18" max="18" width="70.875" customWidth="1"/>
+    <col min="18" max="18" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="51.75">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1380,50 +1394,50 @@
       <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="9">
+        <v>91</v>
+      </c>
+      <c r="H2" s="8">
         <v>2316</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>60</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>35</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>58</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>999999</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="13">
         <v>160</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <v>120</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="13">
         <v>82</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="13">
         <v>131.80000000000001</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="R2" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="39">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1436,106 +1450,106 @@
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="9">
+        <v>91</v>
+      </c>
+      <c r="H3" s="8">
         <v>2316</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>80</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>62</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>68</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>999999</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>213.15</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>159.85</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <v>109</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="13">
         <v>175.4</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="R3" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="9">
+        <v>124</v>
+      </c>
+      <c r="H4" s="8">
         <v>2933</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>26</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>24</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>0</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>0</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="13">
         <v>69.45</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <v>43</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <v>0</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="13">
         <v>27.21</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="7" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="R4" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" ht="77.25">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -1548,610 +1562,610 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="9">
+        <v>92</v>
+      </c>
+      <c r="H5" s="8">
         <v>3068</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>50</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>20</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>25</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>999999</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>93.57</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>85.89</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>28.19</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="13">
         <v>66.989999999999995</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="R5" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" ht="26.25">
       <c r="A6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3521</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="8">
+        <v>50</v>
+      </c>
+      <c r="K6" s="8">
+        <v>50</v>
+      </c>
+      <c r="L6" s="8">
+        <v>50</v>
+      </c>
+      <c r="M6" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N6" s="13">
+        <v>189.79</v>
+      </c>
+      <c r="O6" s="13">
+        <v>159.94999999999999</v>
+      </c>
+      <c r="P6" s="13">
+        <v>59.49</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>143.99</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="26.25">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3088</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>34</v>
+      </c>
+      <c r="M7" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N7" s="13">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="O7" s="13">
+        <v>114.6</v>
+      </c>
+      <c r="P7" s="13">
+        <v>114.6</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>114.6</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="6" customFormat="1" ht="26.25">
+      <c r="A8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2549</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>75</v>
+      </c>
+      <c r="M8" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N8" s="13">
+        <v>206.8</v>
+      </c>
+      <c r="O8" s="13">
+        <v>155.1</v>
+      </c>
+      <c r="P8" s="13">
+        <v>155.1</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>155.1</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="6" customFormat="1" ht="39">
+      <c r="A9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="8">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="9">
-        <v>3521</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="9">
-        <v>50</v>
-      </c>
-      <c r="K6" s="9">
-        <v>50</v>
-      </c>
-      <c r="L6" s="9">
-        <v>50</v>
-      </c>
-      <c r="M6" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N6" s="14">
-        <v>189.79</v>
-      </c>
-      <c r="O6" s="14">
-        <v>159.94999999999999</v>
-      </c>
-      <c r="P6" s="14">
-        <v>59.49</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>143.99</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="9">
-        <v>3088</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>34</v>
-      </c>
-      <c r="M7" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N7" s="14">
-        <v>152.80000000000001</v>
-      </c>
-      <c r="O7" s="14">
-        <v>114.6</v>
-      </c>
-      <c r="P7" s="14">
-        <v>114.6</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>114.6</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2549</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>75</v>
-      </c>
-      <c r="M8" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N8" s="14">
-        <v>206.8</v>
-      </c>
-      <c r="O8" s="14">
-        <v>155.1</v>
-      </c>
-      <c r="P8" s="14">
-        <v>155.1</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>155.1</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="9">
+        <v>179</v>
+      </c>
+      <c r="H9" s="8">
         <v>5211</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>50</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>50</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>50</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>0</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>133.62</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <v>76.19</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>43.55</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="13">
         <v>0</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="R9" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="102.75">
       <c r="A10" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="7">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" s="9">
+        <v>230</v>
+      </c>
+      <c r="H10" s="8">
         <v>13410</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>7</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>7</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>7</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>999999</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="13">
         <v>192.5</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <v>125</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="13">
         <v>17.989999999999998</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="13">
         <v>57.2</v>
       </c>
-      <c r="R10" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="R10" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="26.25">
       <c r="A11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="7">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="9">
+        <v>119</v>
+      </c>
+      <c r="H11" s="8">
         <v>3520</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>9</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>30</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>0</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>0</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>94.78</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <v>25.98</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="13">
         <v>0</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="13">
         <v>0</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+      <c r="R11" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="39">
       <c r="A12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2415</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="8">
+        <v>12</v>
+      </c>
+      <c r="K12" s="8">
+        <v>42</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>40</v>
+      </c>
+      <c r="O12" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="64.5">
+      <c r="A13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10127</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="8">
+        <v>9</v>
+      </c>
+      <c r="K13" s="8">
+        <v>9</v>
+      </c>
+      <c r="L13" s="8">
+        <v>9</v>
+      </c>
+      <c r="M13" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N13" s="13">
+        <v>221.25</v>
+      </c>
+      <c r="O13" s="13">
+        <v>165.95</v>
+      </c>
+      <c r="P13" s="13">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>116.4</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="77.25">
+      <c r="A14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3398</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="8">
+        <v>50</v>
+      </c>
+      <c r="K14" s="8">
+        <v>50</v>
+      </c>
+      <c r="L14" s="8">
+        <v>50</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>77.62</v>
+      </c>
+      <c r="O14" s="13">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="P14" s="13">
+        <v>17.98</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="26.25">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="9">
-        <v>2415</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="9">
-        <v>12</v>
-      </c>
-      <c r="K12" s="9">
-        <v>42</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="14">
-        <v>40</v>
-      </c>
-      <c r="O12" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="P12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6" t="s">
+      <c r="H15" s="8">
+        <v>2417</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="8">
+        <v>21</v>
+      </c>
+      <c r="K15" s="8">
+        <v>29</v>
+      </c>
+      <c r="L15" s="8">
+        <v>75</v>
+      </c>
+      <c r="M15" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N15" s="13">
+        <v>130.5</v>
+      </c>
+      <c r="O15" s="13">
+        <v>97.9</v>
+      </c>
+      <c r="P15" s="13">
+        <v>97.9</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>97.9</v>
+      </c>
+      <c r="R15" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="9">
-        <v>10127</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="9">
-        <v>9</v>
-      </c>
-      <c r="K13" s="9">
-        <v>9</v>
-      </c>
-      <c r="L13" s="9">
-        <v>9</v>
-      </c>
-      <c r="M13" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N13" s="14">
-        <v>221.25</v>
-      </c>
-      <c r="O13" s="14">
-        <v>165.95</v>
-      </c>
-      <c r="P13" s="14">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>116.4</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="9">
-        <v>3398</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="9">
-        <v>50</v>
-      </c>
-      <c r="K14" s="9">
-        <v>50</v>
-      </c>
-      <c r="L14" s="9">
-        <v>50</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="14">
-        <v>77.62</v>
-      </c>
-      <c r="O14" s="14">
-        <v>32.619999999999997</v>
-      </c>
-      <c r="P14" s="14">
-        <v>17.98</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="8">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="9">
-        <v>2417</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="9">
-        <v>21</v>
-      </c>
-      <c r="K15" s="9">
-        <v>29</v>
-      </c>
-      <c r="L15" s="9">
-        <v>75</v>
-      </c>
-      <c r="M15" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N15" s="14">
-        <v>130.5</v>
-      </c>
-      <c r="O15" s="14">
-        <v>97.9</v>
-      </c>
-      <c r="P15" s="14">
-        <v>97.9</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>97.9</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="26.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -2164,50 +2178,50 @@
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="9">
+        <v>93</v>
+      </c>
+      <c r="H16" s="8">
         <v>3274</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>36</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>20</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>27</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>999999</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="13">
         <v>89.92</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <v>27.94</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="13">
         <v>25.6</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="13">
         <v>11.66</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+      <c r="R16" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="39">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -2220,218 +2234,218 @@
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="9">
+        <v>88</v>
+      </c>
+      <c r="H17" s="8">
         <v>2534</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>20</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>16</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>21</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>999999</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>221.25</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <v>165.95</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="13">
         <v>87</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="13">
         <v>116.4</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="R17" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="51.75">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E18" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="7">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="9">
+        <v>123</v>
+      </c>
+      <c r="H18" s="8">
         <v>2922</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>29</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>32</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>61</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>0</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="13">
         <v>172.71</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <v>32.799999999999997</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="13">
         <v>18.79</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="13">
         <v>70.56</v>
       </c>
-      <c r="R18" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+      <c r="R18" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="39">
       <c r="A19" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="E19" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="7">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H19" s="9">
+        <v>231</v>
+      </c>
+      <c r="H19" s="8">
         <v>13442</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>8</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>8</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>8</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>999999</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="13">
         <v>258.45</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="13">
         <v>193.85</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="13">
         <v>122.08</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="13">
         <v>91.99</v>
       </c>
-      <c r="R19" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="12">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="E20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="7">
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="9">
+        <v>82</v>
+      </c>
+      <c r="H20" s="8">
         <v>2942</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="9">
-        <v>1</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="9">
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8">
         <v>62</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>999999</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <v>16</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <v>12</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="13">
         <v>12</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="13">
         <v>12</v>
       </c>
-      <c r="R20" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+      <c r="R20" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="39">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -2444,218 +2458,218 @@
       <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="9">
+        <v>89</v>
+      </c>
+      <c r="H21" s="8">
         <v>2550</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>20</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>20</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>25</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>999999</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="13">
         <v>192.5</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="13">
         <v>125</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="13">
         <v>17.989999999999998</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="13">
         <v>57.2</v>
       </c>
-      <c r="R21" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="R21" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="26.25">
       <c r="A22" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="E22" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" s="7">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H22" s="9">
+        <v>181</v>
+      </c>
+      <c r="H22" s="8">
         <v>3040</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>50</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>50</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>50</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>999999</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="13">
         <v>271.45</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="13">
         <v>361.9</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="13">
         <v>22.99</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="13">
         <v>272.49</v>
       </c>
-      <c r="R22" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+      <c r="R22" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="39">
       <c r="A23" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="E23" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="7">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" s="9">
+        <v>228</v>
+      </c>
+      <c r="H23" s="8">
         <v>12027</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>3</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>3</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>3</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>999999</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="13">
         <v>116.81</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="13">
         <v>54.03</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="13">
         <v>22.5</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="13">
         <v>103.96</v>
       </c>
-      <c r="R23" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="R23" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="26.25">
       <c r="A24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="E24" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="7">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="9">
+        <v>125</v>
+      </c>
+      <c r="H24" s="8">
         <v>2313</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>24</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>43</v>
       </c>
-      <c r="L24" s="9">
-        <v>57</v>
-      </c>
-      <c r="M24" s="9">
+      <c r="L24" s="8">
+        <v>57</v>
+      </c>
+      <c r="M24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="13">
         <v>68.59</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="13">
         <v>14.88</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="13">
         <v>13.99</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="13">
         <v>92.45</v>
       </c>
-      <c r="R24" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+      <c r="R24" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="39">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
@@ -2668,722 +2682,722 @@
       <c r="D25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="9">
+        <v>90</v>
+      </c>
+      <c r="H25" s="8">
         <v>2099</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>50</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>40</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>60</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>999999</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="13">
         <v>258.45</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="13">
         <v>193.85</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="13">
         <v>122.08</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="13">
         <v>91.99</v>
       </c>
-      <c r="R25" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="R25" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="26.25">
       <c r="A26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="8">
+        <v>3374</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="8">
+        <v>50</v>
+      </c>
+      <c r="K26" s="8">
+        <v>50</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="13">
+        <v>14</v>
+      </c>
+      <c r="O26" s="13">
+        <v>3.49</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="26.25">
+      <c r="A27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H27" s="8">
+        <v>11564</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="8">
+        <v>4</v>
+      </c>
+      <c r="K27" s="8">
+        <v>4</v>
+      </c>
+      <c r="L27" s="8">
+        <v>4</v>
+      </c>
+      <c r="M27" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N27" s="13">
+        <v>89.92</v>
+      </c>
+      <c r="O27" s="13">
+        <v>27.94</v>
+      </c>
+      <c r="P27" s="13">
+        <v>25.6</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>11.66</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="51.75">
+      <c r="A28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" s="8">
+        <v>11097</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="8">
+        <v>3</v>
+      </c>
+      <c r="K28" s="8">
+        <v>3</v>
+      </c>
+      <c r="L28" s="8">
+        <v>3</v>
+      </c>
+      <c r="M28" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N28" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="O28" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="P28" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="26.25">
+      <c r="A29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2057</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="8">
+        <v>36</v>
+      </c>
+      <c r="K29" s="8">
+        <v>77</v>
+      </c>
+      <c r="L29" s="8">
+        <v>50</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14">
+        <v>30.29</v>
+      </c>
+      <c r="O29" s="13">
+        <v>82.28</v>
+      </c>
+      <c r="P29" s="13">
+        <v>20.18</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="77.25">
+      <c r="A30" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="8">
-        <v>4</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H26" s="9">
-        <v>3374</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="D30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="8">
+        <v>2407</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="8">
         <v>50</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K30" s="8">
         <v>50</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L30" s="8">
+        <v>50</v>
+      </c>
+      <c r="M30" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N30" s="13">
+        <v>166.54</v>
+      </c>
+      <c r="O30" s="13">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="P30" s="13">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>51.08</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12">
+      <c r="A31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2766</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="8">
+        <v>50</v>
+      </c>
+      <c r="K31" s="8">
+        <v>50</v>
+      </c>
+      <c r="L31" s="8">
+        <v>50</v>
+      </c>
+      <c r="M31" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N31" s="13">
+        <v>182.45</v>
+      </c>
+      <c r="O31" s="13">
+        <v>65</v>
+      </c>
+      <c r="P31" s="13">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>152.49</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="39">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2647</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>34</v>
+      </c>
+      <c r="M32" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N32" s="13">
+        <v>249.95</v>
+      </c>
+      <c r="O32" s="13">
+        <v>187.45</v>
+      </c>
+      <c r="P32" s="13">
+        <v>187.45</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>187.45</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="51.75">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="8">
+        <v>2647</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8">
+        <v>26</v>
+      </c>
+      <c r="M33" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N33" s="13">
+        <v>170</v>
+      </c>
+      <c r="O33" s="13">
+        <v>127.5</v>
+      </c>
+      <c r="P33" s="13">
+        <v>127.5</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>127.5</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="39">
+      <c r="A34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="8">
+        <v>2309</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="8">
+        <v>39</v>
+      </c>
+      <c r="K34" s="8">
+        <v>113</v>
+      </c>
+      <c r="L34" s="8">
+        <v>152</v>
+      </c>
+      <c r="M34" s="8">
         <v>0</v>
       </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="14">
-        <v>14</v>
-      </c>
-      <c r="O26" s="14">
-        <v>3.49</v>
-      </c>
-      <c r="P26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>0</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H27" s="9">
-        <v>11564</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="9">
-        <v>4</v>
-      </c>
-      <c r="K27" s="9">
-        <v>4</v>
-      </c>
-      <c r="L27" s="9">
-        <v>4</v>
-      </c>
-      <c r="M27" s="9">
+      <c r="N34" s="13">
+        <v>202.17</v>
+      </c>
+      <c r="O34" s="13">
+        <v>19.91</v>
+      </c>
+      <c r="P34" s="13">
+        <v>18.91</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>70.88</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="39">
+      <c r="A35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3509</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="8">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8">
+        <v>34</v>
+      </c>
+      <c r="M35" s="8">
         <v>999999</v>
       </c>
-      <c r="N27" s="14">
-        <v>89.92</v>
-      </c>
-      <c r="O27" s="14">
-        <v>27.94</v>
-      </c>
-      <c r="P27" s="14">
-        <v>25.6</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>11.66</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H28" s="9">
-        <v>11097</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="9">
-        <v>3</v>
-      </c>
-      <c r="K28" s="9">
-        <v>3</v>
-      </c>
-      <c r="L28" s="9">
-        <v>3</v>
-      </c>
-      <c r="M28" s="9">
+      <c r="N35" s="13">
+        <v>104</v>
+      </c>
+      <c r="O35" s="13">
+        <v>78</v>
+      </c>
+      <c r="P35" s="13">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>78</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="51.75">
+      <c r="A36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="8">
+        <v>2794</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="8">
+        <v>50</v>
+      </c>
+      <c r="K36" s="8">
+        <v>50</v>
+      </c>
+      <c r="L36" s="8">
+        <v>50</v>
+      </c>
+      <c r="M36" s="8">
         <v>999999</v>
       </c>
-      <c r="N28" s="14">
-        <v>1.99</v>
-      </c>
-      <c r="O28" s="14">
-        <v>1.99</v>
-      </c>
-      <c r="P28" s="14">
-        <v>1.99</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>1.99</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="N36" s="13">
+        <v>113.28</v>
+      </c>
+      <c r="O36" s="15">
+        <v>58.12</v>
+      </c>
+      <c r="P36" s="13">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>93.99</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="26.25">
+      <c r="A37" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="8">
+        <v>13741</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="8">
+        <v>5</v>
+      </c>
+      <c r="K37" s="8">
+        <v>5</v>
+      </c>
+      <c r="L37" s="8">
+        <v>5</v>
+      </c>
+      <c r="M37" s="8">
+        <v>999999</v>
+      </c>
+      <c r="N37" s="13">
+        <v>213.15</v>
+      </c>
+      <c r="O37" s="13">
+        <v>159.85</v>
+      </c>
+      <c r="P37" s="13">
         <v>109</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29" s="9">
-        <v>2057</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="9">
-        <v>36</v>
-      </c>
-      <c r="K29" s="9">
-        <v>77</v>
-      </c>
-      <c r="L29" s="9">
-        <v>50</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="15">
-        <v>30.29</v>
-      </c>
-      <c r="O29" s="14">
-        <v>82.28</v>
-      </c>
-      <c r="P29" s="14">
-        <v>20.18</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>0</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="9">
-        <v>2407</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="9">
-        <v>50</v>
-      </c>
-      <c r="K30" s="9">
-        <v>50</v>
-      </c>
-      <c r="L30" s="9">
-        <v>50</v>
-      </c>
-      <c r="M30" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N30" s="14">
-        <v>166.54</v>
-      </c>
-      <c r="O30" s="14">
-        <v>74.989999999999995</v>
-      </c>
-      <c r="P30" s="14">
-        <v>39.869999999999997</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>51.08</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H31" s="9">
-        <v>2766</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="9">
-        <v>50</v>
-      </c>
-      <c r="K31" s="9">
-        <v>50</v>
-      </c>
-      <c r="L31" s="9">
-        <v>50</v>
-      </c>
-      <c r="M31" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N31" s="14">
-        <v>182.45</v>
-      </c>
-      <c r="O31" s="14">
-        <v>65</v>
-      </c>
-      <c r="P31" s="14">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>152.49</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="9">
-        <v>2647</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="9">
-        <v>1</v>
-      </c>
-      <c r="K32" s="9">
-        <v>1</v>
-      </c>
-      <c r="L32" s="9">
-        <v>34</v>
-      </c>
-      <c r="M32" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N32" s="14">
-        <v>249.95</v>
-      </c>
-      <c r="O32" s="14">
-        <v>187.45</v>
-      </c>
-      <c r="P32" s="14">
-        <v>187.45</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>187.45</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="9">
-        <v>2647</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="9">
-        <v>1</v>
-      </c>
-      <c r="K33" s="9">
-        <v>1</v>
-      </c>
-      <c r="L33" s="9">
-        <v>26</v>
-      </c>
-      <c r="M33" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N33" s="14">
-        <v>170</v>
-      </c>
-      <c r="O33" s="14">
-        <v>127.5</v>
-      </c>
-      <c r="P33" s="14">
-        <v>127.5</v>
-      </c>
-      <c r="Q33" s="14">
-        <v>127.5</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2309</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="9">
-        <v>39</v>
-      </c>
-      <c r="K34" s="9">
-        <v>113</v>
-      </c>
-      <c r="L34" s="9">
-        <v>152</v>
-      </c>
-      <c r="M34" s="9">
-        <v>0</v>
-      </c>
-      <c r="N34" s="14">
-        <v>202.17</v>
-      </c>
-      <c r="O34" s="14">
-        <v>19.91</v>
-      </c>
-      <c r="P34" s="14">
-        <v>18.91</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>70.88</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="17" t="s">
+      <c r="Q37" s="13">
+        <v>175.4</v>
+      </c>
+      <c r="R37" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="F35" s="8">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="9">
-        <v>3509</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="9">
-        <v>1</v>
-      </c>
-      <c r="K35" s="9">
-        <v>1</v>
-      </c>
-      <c r="L35" s="9">
-        <v>34</v>
-      </c>
-      <c r="M35" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N35" s="14">
-        <v>104</v>
-      </c>
-      <c r="O35" s="14">
-        <v>78</v>
-      </c>
-      <c r="P35" s="14">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>78</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H36" s="9">
-        <v>2794</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" s="9">
-        <v>50</v>
-      </c>
-      <c r="K36" s="9">
-        <v>50</v>
-      </c>
-      <c r="L36" s="9">
-        <v>50</v>
-      </c>
-      <c r="M36" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N36" s="14">
-        <v>113.28</v>
-      </c>
-      <c r="O36" s="16">
-        <v>58.12</v>
-      </c>
-      <c r="P36" s="14">
-        <v>32.840000000000003</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>93.99</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H37" s="9">
-        <v>13741</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" s="9">
-        <v>5</v>
-      </c>
-      <c r="K37" s="9">
-        <v>5</v>
-      </c>
-      <c r="L37" s="9">
-        <v>5</v>
-      </c>
-      <c r="M37" s="9">
-        <v>999999</v>
-      </c>
-      <c r="N37" s="14">
-        <v>213.15</v>
-      </c>
-      <c r="O37" s="14">
-        <v>159.85</v>
-      </c>
-      <c r="P37" s="14">
-        <v>109</v>
-      </c>
-      <c r="Q37" s="14">
-        <v>175.4</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:18" ht="26.25">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -3396,162 +3410,162 @@
       <c r="D38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="9">
+        <v>93</v>
+      </c>
+      <c r="H38" s="8">
         <v>3274</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="8">
         <v>30</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="8">
         <v>10</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="8">
         <v>15</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="8">
         <v>999999</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="13">
         <v>143.63999999999999</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38" s="13">
         <v>74.86</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="13">
         <v>57.75</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q38" s="13">
         <v>123.16</v>
       </c>
-      <c r="R38" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R38" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="12">
       <c r="A39" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F39" s="8">
+      <c r="E39" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="7">
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H39" s="9">
+        <v>234</v>
+      </c>
+      <c r="H39" s="8">
         <v>10328</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <v>6</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="8">
         <v>6</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="8">
         <v>6</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="8">
         <v>999999</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="13">
         <v>93.57</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="13">
         <v>85.89</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="13">
         <v>28.19</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="13">
         <v>66.989999999999995</v>
       </c>
-      <c r="R39" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="R39" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="26.25">
       <c r="A40" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="F40" s="8">
+      <c r="E40" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H40" s="9">
+        <v>237</v>
+      </c>
+      <c r="H40" s="8">
         <v>10256</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="8">
         <v>5</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="8">
         <v>5</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>5</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <v>999999</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="13">
         <v>143.63999999999999</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O40" s="13">
         <v>74.86</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="13">
         <v>57.75</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q40" s="13">
         <v>123.16</v>
       </c>
-      <c r="R40" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="R40" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="51.75">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -3564,218 +3578,218 @@
       <c r="D41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" s="9">
+        <v>87</v>
+      </c>
+      <c r="H41" s="8">
         <v>3092</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="8">
         <v>20</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="8">
         <v>15</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <v>15</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <v>999999</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="13">
         <v>116.81</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="13">
         <v>54.03</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="13">
         <v>22.5</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q41" s="13">
         <v>103.96</v>
       </c>
-      <c r="R41" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="R41" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="26.25">
       <c r="A42" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F42" s="8">
+      <c r="E42" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="7">
         <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H42" s="9">
+        <v>232</v>
+      </c>
+      <c r="H42" s="8">
         <v>11435</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <v>6</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="8">
         <v>6</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="8">
         <v>6</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="8">
         <v>999999</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="13">
         <v>160</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="13">
         <v>120</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="13">
         <v>82</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q42" s="13">
         <v>131.80000000000001</v>
       </c>
-      <c r="R42" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="R42" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="64.5">
       <c r="A43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F43" s="8">
+      <c r="E43" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F43" s="7">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="9">
+        <v>126</v>
+      </c>
+      <c r="H43" s="8">
         <v>2831</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="8">
         <v>11</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="8">
         <v>5</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="8">
         <v>0</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="8">
         <v>0</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="13">
         <v>91.35</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O43" s="13">
         <v>98.7</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="13">
         <v>0</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="Q43" s="13">
         <v>0</v>
       </c>
-      <c r="R43" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="R43" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="26.25">
       <c r="A44" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" s="8">
+      <c r="E44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="7">
         <v>1</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="9">
+        <v>187</v>
+      </c>
+      <c r="H44" s="8">
         <v>5277</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="8">
         <v>50</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="8">
         <v>50</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="8">
         <v>50</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="8">
         <v>0</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="13">
         <v>68.569999999999993</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="13">
         <v>51.55</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P44" s="13">
         <v>0</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q44" s="13">
         <v>0</v>
       </c>
-      <c r="R44" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="R44" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="49">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
@@ -3788,64 +3802,55 @@
       <c r="D45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H45" s="9">
+        <v>93</v>
+      </c>
+      <c r="H45" s="8">
         <v>3274</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="9">
+      <c r="J45" s="8">
+        <v>999999</v>
+      </c>
+      <c r="K45" s="8">
+        <v>999999</v>
+      </c>
+      <c r="L45" s="8">
         <v>34</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="8">
         <v>999999</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="13">
         <v>1.99</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45" s="13">
         <v>1.99</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P45" s="13">
         <v>1.99</v>
       </c>
-      <c r="Q45" s="14">
+      <c r="Q45" s="13">
         <v>1.99</v>
       </c>
-      <c r="R45" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="R46" s="7"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
+      <c r="R45" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:R49">
     <sortCondition ref="A2:A49"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Team7_SPSUBookstore/Team7_SPSUBookstore/bin/Resources/books.xlsx
+++ b/Team7_SPSUBookstore/Team7_SPSUBookstore/bin/Resources/books.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Code\IntroSWE\Team7_SPSUBookstore\Team7_SPSUBookstore\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1620" windowWidth="22320" windowHeight="12480" tabRatio="123"/>
+    <workbookView xWindow="2505" yWindow="1620" windowWidth="22320" windowHeight="12480" tabRatio="123"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -975,6 +980,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1308,24 +1316,24 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="11" style="1"/>
     <col min="8" max="8" width="11" style="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="18" max="18" width="70.83203125" customWidth="1"/>
+    <col min="18" max="18" width="70.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="16.5" thickBot="1">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="51.75">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1410,7 +1418,7 @@
         <v>57</v>
       </c>
       <c r="J2" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="8">
         <v>35</v>
@@ -1419,7 +1427,7 @@
         <v>58</v>
       </c>
       <c r="M2" s="8">
-        <v>999999</v>
+        <v>57</v>
       </c>
       <c r="N2" s="13">
         <v>160</v>
@@ -1437,7 +1445,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="39">
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1493,7 +1501,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="39">
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>97</v>
       </c>
@@ -1549,7 +1557,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" ht="77.25">
+    <row r="5" spans="1:18" s="6" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -1605,7 +1613,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" ht="26.25">
+    <row r="6" spans="1:18" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>136</v>
       </c>
@@ -1661,7 +1669,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" ht="26.25">
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="6" customFormat="1" ht="26.25">
+    <row r="8" spans="1:18" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -1773,7 +1781,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="6" customFormat="1" ht="39">
+    <row r="9" spans="1:18" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>137</v>
       </c>
@@ -1829,7 +1837,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" ht="102.75">
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>200</v>
       </c>
@@ -1885,7 +1893,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="26.25">
+    <row r="11" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
@@ -1941,7 +1949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="39">
+    <row r="12" spans="1:18" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -1997,7 +2005,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="64.5">
+    <row r="13" spans="1:18" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>199</v>
       </c>
@@ -2053,7 +2061,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="77.25">
+    <row r="14" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>138</v>
       </c>
@@ -2109,7 +2117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="26.25">
+    <row r="15" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="26.25">
+    <row r="16" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="39">
+    <row r="17" spans="1:18" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -2277,7 +2285,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="51.75">
+    <row r="18" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>96</v>
       </c>
@@ -2333,7 +2341,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="39">
+    <row r="19" spans="1:18" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>201</v>
       </c>
@@ -2389,7 +2397,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="12">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -2445,7 +2453,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="39">
+    <row r="21" spans="1:18" ht="39" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -2501,7 +2509,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="26.25">
+    <row r="22" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>139</v>
       </c>
@@ -2557,7 +2565,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="39">
+    <row r="23" spans="1:18" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>198</v>
       </c>
@@ -2613,7 +2621,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="26.25">
+    <row r="24" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>98</v>
       </c>
@@ -2669,7 +2677,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="39">
+    <row r="25" spans="1:18" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
@@ -2725,7 +2733,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="26.25">
+    <row r="26" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>140</v>
       </c>
@@ -2781,7 +2789,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="26.25">
+    <row r="27" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>206</v>
       </c>
@@ -2837,7 +2845,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="51.75">
+    <row r="28" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>205</v>
       </c>
@@ -2893,7 +2901,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="26.25">
+    <row r="29" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>99</v>
       </c>
@@ -2949,7 +2957,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="77.25">
+    <row r="30" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>141</v>
       </c>
@@ -3005,7 +3013,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="12">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>142</v>
       </c>
@@ -3061,7 +3069,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="39">
+    <row r="32" spans="1:18" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
@@ -3117,7 +3125,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="51.75">
+    <row r="33" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>75</v>
       </c>
@@ -3173,7 +3181,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="39">
+    <row r="34" spans="1:18" ht="39" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
@@ -3229,7 +3237,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="39">
+    <row r="35" spans="1:18" ht="39" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>77</v>
       </c>
@@ -3285,7 +3293,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="51.75">
+    <row r="36" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>143</v>
       </c>
@@ -3341,7 +3349,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="26.25">
+    <row r="37" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>203</v>
       </c>
@@ -3397,7 +3405,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="26.25">
+    <row r="38" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -3453,7 +3461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="12">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>204</v>
       </c>
@@ -3509,7 +3517,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="26.25">
+    <row r="40" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>207</v>
       </c>
@@ -3565,7 +3573,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="51.75">
+    <row r="41" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -3621,7 +3629,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="26.25">
+    <row r="42" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>202</v>
       </c>
@@ -3677,7 +3685,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="64.5">
+    <row r="43" spans="1:18" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
@@ -3733,7 +3741,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="26.25">
+    <row r="44" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>144</v>
       </c>
@@ -3789,7 +3797,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="49">
+    <row r="45" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>

--- a/Team7_SPSUBookstore/Team7_SPSUBookstore/bin/Resources/books.xlsx
+++ b/Team7_SPSUBookstore/Team7_SPSUBookstore/bin/Resources/books.xlsx
@@ -1427,7 +1427,7 @@
         <v>58</v>
       </c>
       <c r="M2" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N2" s="13">
         <v>160</v>

--- a/Team7_SPSUBookstore/Team7_SPSUBookstore/bin/Resources/books.xlsx
+++ b/Team7_SPSUBookstore/Team7_SPSUBookstore/bin/Resources/books.xlsx
@@ -1418,7 +1418,7 @@
         <v>57</v>
       </c>
       <c r="J2" s="8">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K2" s="8">
         <v>35</v>
@@ -1645,7 +1645,7 @@
         <v>50</v>
       </c>
       <c r="K6" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L6" s="8">
         <v>50</v>
